--- a/ExcelReport/demox.xlsx
+++ b/ExcelReport/demox.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21129"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4A5E0F10-EB62-4ECC-9B34-7F6781CC8C98}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C95C0259-FD63-4DDF-AC12-BF2B4504D039}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>BusinessPartnerCode</t>
   </si>
   <si>
-    <t>NetSalesAmountSC</t>
-  </si>
-  <si>
-    <t>abc</t>
+    <t>GrossProfitSC</t>
   </si>
 </sst>
 </file>
@@ -46,19 +43,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -158,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -169,7 +160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K7"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="2:11">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -513,13 +503,13 @@
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="2:11">
       <c r="B3" s="3" t="e">
         <f ca="1">iaGet("BusinessPartnerCode")</f>
         <v>#NAME?</v>
       </c>
       <c r="C3" s="1" t="e">
-        <f ca="1">iaGet("NetSalesAmountSC")</f>
+        <f ca="1">iaGet("GrossProfitSC")</f>
         <v>#NAME?</v>
       </c>
       <c r="D3" s="1"/>
@@ -531,7 +521,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="2:11">
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -543,10 +533,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
+    <row r="5" spans="2:11">
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -558,8 +545,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
+    <row r="6" spans="2:11">
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -571,7 +557,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="2:11">
       <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
